--- a/Week_3/Posson_Dist.xlsx
+++ b/Week_3/Posson_Dist.xlsx
@@ -72,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +409,7 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -429,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.02</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -438,7 +439,7 @@
       </c>
       <c r="D5">
         <f>(D3-1)*D4</f>
-        <v>0.98</v>
+        <v>3.8220000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -458,11 +459,11 @@
       </c>
       <c r="C8">
         <f>POISSON(B8,$D$5,0)</f>
-        <v>0.37531109885139957</v>
-      </c>
-      <c r="D8">
+        <v>2.1883989118852424E-2</v>
+      </c>
+      <c r="D8" s="1">
         <f>50*C8</f>
-        <v>18.765554942569977</v>
+        <v>1.0941994559426211</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -471,11 +472,11 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C20" si="0">POISSON(B9,$D$5,0)</f>
-        <v>0.36780487687437152</v>
-      </c>
-      <c r="D9">
+        <v>8.3640606412253973E-2</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" ref="D9:D20" si="1">50*C9</f>
-        <v>18.390243843718576</v>
+        <v>4.1820303206126983</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -484,11 +485,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.18022438966844204</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>9.0112194834221011</v>
+        <v>0.15983719885381739</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9918599426908692</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -497,11 +498,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>5.8873300625024404E-2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>2.94366503125122</v>
+        <v>0.20363259133976336</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>10.181629566988168</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -510,11 +511,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.4423958653130977E-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.72119793265654886</v>
+        <v>0.19457094102514386</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.728547051257193</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -523,11 +524,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2.8270958960136721E-3</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.14135479480068361</v>
+        <v>0.14873002731961993</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4365013659809964</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -536,11 +537,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>4.6175899634889964E-4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>2.3087949817444983E-2</v>
+        <v>9.4741027402597891E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7370513701298949</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -549,11 +550,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6.4646259488846051E-5</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>3.2323129744423027E-3</v>
+        <v>5.1728600961818444E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5864300480909224</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -562,11 +563,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>7.9191667873836105E-6</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>3.9595833936918051E-4</v>
+        <v>2.4713339109508792E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2356669554754396</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -575,11 +576,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>8.6230927240399401E-7</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>4.3115463620199702E-5</v>
+        <v>1.0494931341838064E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52474656709190315</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -588,11 +589,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>8.4506308695591326E-8</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>4.2253154347795667E-6</v>
+        <v>4.0111627588505089E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20055813794252544</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -601,11 +602,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>7.5287438656072117E-9</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>3.7643719328036058E-7</v>
+        <v>1.3936967331206025E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9684836656030119E-2</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -614,11 +615,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>6.1484741569125929E-10</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>3.0742370784562967E-8</v>
+        <v>4.4389240949891263E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.219462047494563E-2</v>
       </c>
     </row>
   </sheetData>
